--- a/docs/zhihu/zhihu_user_info.xlsx
+++ b/docs/zhihu/zhihu_user_info.xlsx
@@ -94,7 +94,7 @@
     <t>https://www.zhihu.com/people/po-pi-pi</t>
   </si>
   <si>
-    <t>https://pic3.zhimg.com/v2-a8df14a8bece922f078d915892f369c8_l.jpg</t>
+    <t>https://pic1.zhimg.com/v2-a8df14a8bece922f078d915892f369c8_l.jpg</t>
   </si>
   <si>
     <t>我也不知道怎么描述我自己</t>
@@ -103,7 +103,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>http://www.zhihu.com/api/v3/feed/members/po-pi-pi/activities?before_id=1588656446&amp;limit=7&amp;session_id=1281542304005345280&amp;desktop=True</t>
+    <t>http://www.zhihu.com/api/v3/feed/members/po-pi-pi/activities?before_id=1588656446&amp;limit=7&amp;session_id=1281992648740433920&amp;desktop=True</t>
   </si>
 </sst>
 </file>
